--- a/Descargas/R15_Tribunal De Juicio Oral En Lo Penal De Calama_Sentencias Por Delito_2020-Enero.xlsx
+++ b/Descargas/R15_Tribunal De Juicio Oral En Lo Penal De Calama_Sentencias Por Delito_2020-Enero.xlsx
@@ -201,7 +201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="28.35" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -215,10 +216,15 @@
     <row r="2">
       <c t="inlineStr" r="A2" s="2">
         <is>
-          <t xml:space="preserve">Materia</t>
+          <t xml:space="preserve">Tribunal</t>
         </is>
       </c>
       <c t="inlineStr" r="B2" s="2">
+        <is>
+          <t xml:space="preserve">Motivo Término</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C2" s="2">
         <is>
           <t xml:space="preserve">Total</t>
         </is>
@@ -227,176 +233,21 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Abuso Sexual Con Contacto De Menor De 14 Años. Art. 366 Bis</t>
-        </is>
-      </c>
-      <c r="B3" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="inlineStr" r="A4">
-        <is>
-          <t xml:space="preserve">Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia</t>
-        </is>
-      </c>
-      <c r="B4" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="inlineStr" r="A5">
-        <is>
-          <t xml:space="preserve">Amenazas Simples Contra Personas Y Propiedades Art. 296 Nº3.</t>
-        </is>
-      </c>
-      <c r="B5" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="inlineStr" r="A6">
-        <is>
-          <t xml:space="preserve">Amenazasa Carabineros (Art. 417 Cód. J.militar).</t>
-        </is>
-      </c>
-      <c r="B6" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="inlineStr" r="A7">
-        <is>
-          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
-        </is>
-      </c>
-      <c r="B7" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="inlineStr" r="A8">
-        <is>
-          <t xml:space="preserve">Homicidio.</t>
-        </is>
-      </c>
-      <c r="B8" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="inlineStr" r="A9">
-        <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
-        </is>
-      </c>
-      <c r="B9" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="inlineStr" r="A10">
-        <is>
-          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
-        </is>
-      </c>
-      <c r="B10" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="inlineStr" r="A11">
-        <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
-        </is>
-      </c>
-      <c r="B11" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="inlineStr" r="A12">
-        <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
-        </is>
-      </c>
-      <c r="B12" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="inlineStr" r="A13">
-        <is>
-          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
-        </is>
-      </c>
-      <c r="B13" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="inlineStr" r="A14">
-        <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
-        </is>
-      </c>
-      <c r="B14" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="inlineStr" r="A15">
-        <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
-        </is>
-      </c>
-      <c r="B15" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="inlineStr" r="A16">
-        <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
-        </is>
-      </c>
-      <c r="B16" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="inlineStr" r="A17">
-        <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
-        </is>
-      </c>
-      <c r="B17" s="65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="inlineStr" r="A18">
-        <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
-        </is>
-      </c>
-      <c r="B18" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c t="inlineStr" r="A19">
-        <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
-        </is>
-      </c>
-      <c r="B19" s="65">
-        <v>3</v>
+          <t xml:space="preserve">Tribunal De Juicio Oral En Lo Penal De Calama.</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B3">
+        <is>
+          <t xml:space="preserve">Absolución O Condena.</t>
+        </is>
+      </c>
+      <c r="C3" s="65">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
 </worksheet>
 </file>